--- a/data/KFG_DB_Excel/UR093.xlsx
+++ b/data/KFG_DB_Excel/UR093.xlsx
@@ -126,7 +126,7 @@
     <t>Creation_Date:2/20/06 10:40</t>
   </si>
   <si>
-    <t>Excel Write Date:2023-05-29</t>
+    <t>Excel Write Date:2023-06-03</t>
   </si>
   <si>
     <t>Excel File Creator:Ashok Khosla</t>
